--- a/sem2/Sorts/sort.xlsx
+++ b/sem2/Sorts/sort.xlsx
@@ -19,132 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>0.023000</t>
-  </si>
-  <si>
-    <t>0.049000</t>
-  </si>
-  <si>
-    <t>0.083000</t>
-  </si>
-  <si>
-    <t>0.147000</t>
-  </si>
-  <si>
-    <t>0.283000</t>
-  </si>
-  <si>
-    <t>0.150000</t>
-  </si>
-  <si>
-    <t>0.223000</t>
-  </si>
-  <si>
-    <t>0.247000</t>
-  </si>
-  <si>
-    <t>0.290000</t>
-  </si>
-  <si>
-    <t>0.369000</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Quick</t>
   </si>
   <si>
-    <t>0.182000</t>
-  </si>
-  <si>
-    <t>0.427000</t>
-  </si>
-  <si>
-    <t>1.000000</t>
-  </si>
-  <si>
-    <t>1.834000</t>
-  </si>
-  <si>
-    <t>2.722000</t>
-  </si>
-  <si>
-    <t>4.092000</t>
-  </si>
-  <si>
-    <t>5.406000</t>
-  </si>
-  <si>
-    <t>6.895000</t>
-  </si>
-  <si>
-    <t>9.014000</t>
-  </si>
-  <si>
-    <t>11.170000</t>
-  </si>
-  <si>
     <t>Insert</t>
-  </si>
-  <si>
-    <t>0.062000</t>
-  </si>
-  <si>
-    <t>0.141000</t>
-  </si>
-  <si>
-    <t>0.177000</t>
-  </si>
-  <si>
-    <t>0.234000</t>
-  </si>
-  <si>
-    <t>0.372000</t>
-  </si>
-  <si>
-    <t>0.350000</t>
-  </si>
-  <si>
-    <t>0.387000</t>
-  </si>
-  <si>
-    <t>0.500000</t>
-  </si>
-  <si>
-    <t>0.492000</t>
-  </si>
-  <si>
-    <t>0.630000</t>
-  </si>
-  <si>
-    <t>13.084000</t>
-  </si>
-  <si>
-    <t>50.161000</t>
-  </si>
-  <si>
-    <t>105.717000</t>
-  </si>
-  <si>
-    <t>181.249000</t>
-  </si>
-  <si>
-    <t>286.744000</t>
-  </si>
-  <si>
-    <t>356.254000</t>
-  </si>
-  <si>
-    <t>575.110000</t>
-  </si>
-  <si>
-    <t>657.238000</t>
-  </si>
-  <si>
-    <t>770.742000</t>
-  </si>
-  <si>
-    <t>1012.509000</t>
   </si>
 </sst>
 </file>
@@ -297,34 +177,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.14699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.28299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.36899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,34 +469,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.42699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.8340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.0919999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.4059999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.8949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9.0139999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>11.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,34 +761,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.17699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.38700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,34 +1052,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50.161000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>105.717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>181.249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>286.74400000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>356.25400000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>575.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>657.23800000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>770.74199999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1012.509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,288 +3857,288 @@
       <c r="A1">
         <v>100000</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1">
+        <v>2.3E-2</v>
       </c>
       <c r="L1">
         <v>10000</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
+      <c r="M1">
+        <v>0.182</v>
       </c>
       <c r="W1">
         <v>100000</v>
       </c>
-      <c r="X1" t="s">
-        <v>22</v>
+      <c r="X1">
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200000</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="L2">
         <v>20000</v>
       </c>
-      <c r="M2" t="s">
-        <v>12</v>
+      <c r="M2">
+        <v>0.42699999999999999</v>
       </c>
       <c r="W2">
         <v>200000</v>
       </c>
-      <c r="X2" t="s">
-        <v>23</v>
+      <c r="X2">
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>300000</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="L3">
         <v>30000</v>
       </c>
-      <c r="M3" t="s">
-        <v>13</v>
+      <c r="M3">
+        <v>1</v>
       </c>
       <c r="W3">
         <v>300000</v>
       </c>
-      <c r="X3" t="s">
-        <v>24</v>
+      <c r="X3">
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400000</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4">
+        <v>0.14699999999999999</v>
       </c>
       <c r="L4">
         <v>40000</v>
       </c>
-      <c r="M4" t="s">
-        <v>14</v>
+      <c r="M4">
+        <v>1.8340000000000001</v>
       </c>
       <c r="W4">
         <v>400000</v>
       </c>
-      <c r="X4" t="s">
-        <v>25</v>
+      <c r="X4">
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500000</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>0.28299999999999997</v>
       </c>
       <c r="L5">
         <v>50000</v>
       </c>
-      <c r="M5" t="s">
-        <v>15</v>
+      <c r="M5">
+        <v>2.722</v>
       </c>
       <c r="W5">
         <v>500000</v>
       </c>
-      <c r="X5" t="s">
-        <v>26</v>
+      <c r="X5">
+        <v>0.372</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>600000</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6">
+        <v>0.15</v>
       </c>
       <c r="L6">
         <v>60000</v>
       </c>
-      <c r="M6" t="s">
-        <v>16</v>
+      <c r="M6">
+        <v>4.0919999999999996</v>
       </c>
       <c r="W6">
         <v>600000</v>
       </c>
-      <c r="X6" t="s">
-        <v>27</v>
+      <c r="X6">
+        <v>0.35</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>700000</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7">
+        <v>0.223</v>
       </c>
       <c r="L7">
         <v>70000</v>
       </c>
-      <c r="M7" t="s">
-        <v>17</v>
+      <c r="M7">
+        <v>5.4059999999999997</v>
       </c>
       <c r="W7">
         <v>700000</v>
       </c>
-      <c r="X7" t="s">
-        <v>28</v>
+      <c r="X7">
+        <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>800000</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8">
+        <v>0.247</v>
       </c>
       <c r="L8">
         <v>80000</v>
       </c>
-      <c r="M8" t="s">
-        <v>18</v>
+      <c r="M8">
+        <v>6.8949999999999996</v>
       </c>
       <c r="W8">
         <v>800000</v>
       </c>
-      <c r="X8" t="s">
-        <v>29</v>
+      <c r="X8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>900000</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B9">
+        <v>0.28999999999999998</v>
       </c>
       <c r="L9">
         <v>90000</v>
       </c>
-      <c r="M9" t="s">
-        <v>19</v>
+      <c r="M9">
+        <v>9.0139999999999993</v>
       </c>
       <c r="W9">
         <v>900000</v>
       </c>
-      <c r="X9" t="s">
-        <v>30</v>
+      <c r="X9">
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1000000</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="B10">
+        <v>0.36899999999999999</v>
       </c>
       <c r="L10">
         <v>100000</v>
       </c>
-      <c r="M10" t="s">
-        <v>20</v>
+      <c r="M10">
+        <v>11.17</v>
       </c>
       <c r="W10">
         <v>1000000</v>
       </c>
-      <c r="X10" t="s">
-        <v>31</v>
+      <c r="X10">
+        <v>0.63</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50000</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
+      <c r="B17">
+        <v>13.084</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100000</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
+      <c r="B18">
+        <v>50.161000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>150000</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
+      <c r="B19">
+        <v>105.717</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>200000</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
+      <c r="B20">
+        <v>181.249</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>250000</v>
       </c>
-      <c r="B21" t="s">
-        <v>36</v>
+      <c r="B21">
+        <v>286.74400000000003</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>300000</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
+      <c r="B22">
+        <v>356.25400000000002</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>350000</v>
       </c>
-      <c r="B23" t="s">
-        <v>38</v>
+      <c r="B23">
+        <v>575.11</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>400000</v>
       </c>
-      <c r="B24" t="s">
-        <v>39</v>
+      <c r="B24">
+        <v>657.23800000000006</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>450000</v>
       </c>
-      <c r="B25" t="s">
-        <v>40</v>
+      <c r="B25">
+        <v>770.74199999999996</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>500000</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
+      <c r="B26">
+        <v>1012.509</v>
       </c>
     </row>
   </sheetData>

--- a/sem2/Sorts/sort.xlsx
+++ b/sem2/Sorts/sort.xlsx
@@ -94,6 +94,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Quick</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -378,6 +412,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -396,6 +431,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Insert</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sort</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -670,6 +735,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -961,6 +1027,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1253,6 +1320,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3579,6 +3647,710 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00419</cdr:x>
+      <cdr:y>0.00388</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28931</cdr:x>
+      <cdr:y>0.11628</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="19051" y="9525"/>
+          <a:ext cx="1295400" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> выполнения</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67086</cdr:x>
+      <cdr:y>0.78295</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97694</cdr:x>
+      <cdr:y>0.87984</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3047999" y="1924050"/>
+          <a:ext cx="1390651" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество итераций</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01071</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2838</cdr:x>
+      <cdr:y>0.11921</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="1295400" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> выполнения</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.69143</cdr:x>
+      <cdr:y>0.80671</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98461</cdr:x>
+      <cdr:y>0.89352</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3279775" y="2212975"/>
+          <a:ext cx="1390651" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество итераций</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67361</cdr:x>
+      <cdr:y>0.79282</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97778</cdr:x>
+      <cdr:y>0.87963</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3079750" y="2174875"/>
+          <a:ext cx="1390651" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество итераций</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29444</cdr:x>
+      <cdr:y>0.11921</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="1295400" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> выполнения</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66319</cdr:x>
+      <cdr:y>0.79282</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96736</cdr:x>
+      <cdr:y>0.87963</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3032125" y="2174875"/>
+          <a:ext cx="1390651" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество итераций</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.01852</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29444</cdr:x>
+      <cdr:y>0.11921</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="50800"/>
+          <a:ext cx="1295400" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> выполнения</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -3845,7 +4617,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
